--- a/notas-fiscais.xlsx
+++ b/notas-fiscais.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,70 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>João</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>25</v>
+          <t>Michael dos santosa</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>29 anosa</t>
+        </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>joao@example.com</t>
+          <t>mcialbr1234@gmail.coma</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>17992010557a</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Rua A, 123</t>
+          <t>Rua nelson martines 198a</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Catanduvaa</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>maria@example.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>987654321</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Rua B, 456</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>RJ</t>
+          <t>São Pauloa</t>
         </is>
       </c>
     </row>

--- a/notas-fiscais.xlsx
+++ b/notas-fiscais.xlsx
@@ -1,40 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\AUTOMACOES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BE2136-D004-419F-8342-29FCB2C9539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>RAZÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>Numero PC</t>
+  </si>
+  <si>
+    <t>Data Enviada</t>
+  </si>
+  <si>
+    <t>Numero da NF</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Data de Emissão</t>
+  </si>
+  <si>
+    <t>Data de vencimento</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +85,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,57 +409,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Michael dos santosa</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>29 anosa</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mcialbr1234@gmail.coma</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>17992010557a</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Rua nelson martines 198a</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Catanduvaa</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>São Pauloa</t>
-        </is>
-      </c>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/notas-fiscais.xlsx
+++ b/notas-fiscais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\AUTOMACOES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BE2136-D004-419F-8342-29FCB2C9539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892306CE-19D3-4B26-9150-28313E15BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -428,49 +427,28 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notas-fiscais.xlsx
+++ b/notas-fiscais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\AUTOMACOES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892306CE-19D3-4B26-9150-28313E15BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5860E-19A0-48E8-8097-D51B6E14BC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>RAZÃO SOCIAL</t>
   </si>
   <si>
+    <t>Data Enviada</t>
+  </si>
+  <si>
     <t>Numero PC</t>
   </si>
   <si>
-    <t>Data Enviada</t>
-  </si>
-  <si>
     <t>Numero da NF</t>
   </si>
   <si>
@@ -41,6 +41,48 @@
   </si>
   <si>
     <t>Data de vencimento</t>
+  </si>
+  <si>
+    <t>VIU INTERNET</t>
+  </si>
+  <si>
+    <t>12/23</t>
+  </si>
+  <si>
+    <t>009922</t>
+  </si>
+  <si>
+    <t>0022331</t>
+  </si>
+  <si>
+    <t>8192,92</t>
+  </si>
+  <si>
+    <t>01/12</t>
+  </si>
+  <si>
+    <t>31/12</t>
+  </si>
+  <si>
+    <t>VIU INTERNETa</t>
+  </si>
+  <si>
+    <t>12/23a</t>
+  </si>
+  <si>
+    <t>009922a</t>
+  </si>
+  <si>
+    <t>0022331a</t>
+  </si>
+  <si>
+    <t>8192,92a</t>
+  </si>
+  <si>
+    <t>01/12a</t>
+  </si>
+  <si>
+    <t>31/12a</t>
   </si>
 </sst>
 </file>
@@ -409,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,15 +469,15 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -448,10 +490,79 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>